--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Thbs1-Sdc4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Thbs1-Sdc4.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H2">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I2">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J2">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.00383894345923</v>
+        <v>2.085625</v>
       </c>
       <c r="N2">
-        <v>2.00383894345923</v>
+        <v>6.256875</v>
       </c>
       <c r="O2">
-        <v>0.02601107986164586</v>
+        <v>0.02635737528678909</v>
       </c>
       <c r="P2">
-        <v>0.02601107986164586</v>
+        <v>0.0263573752867891</v>
       </c>
       <c r="Q2">
-        <v>59.95890022725023</v>
+        <v>65.26052714583332</v>
       </c>
       <c r="R2">
-        <v>59.95890022725023</v>
+        <v>587.3447443125</v>
       </c>
       <c r="S2">
-        <v>0.0006182032984134139</v>
+        <v>0.0005342092486026579</v>
       </c>
       <c r="T2">
-        <v>0.0006182032984134139</v>
+        <v>0.000534209248602658</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H3">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I3">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J3">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.811197695588911</v>
+        <v>9.933755333333332</v>
       </c>
       <c r="N3">
-        <v>9.811197695588911</v>
+        <v>29.801266</v>
       </c>
       <c r="O3">
-        <v>0.1273554681783992</v>
+        <v>0.1255392111850449</v>
       </c>
       <c r="P3">
-        <v>0.1273554681783992</v>
+        <v>0.125539211185045</v>
       </c>
       <c r="Q3">
-        <v>293.5708109974717</v>
+        <v>310.8334957583778</v>
       </c>
       <c r="R3">
-        <v>293.5708109974717</v>
+        <v>2797.5014618254</v>
       </c>
       <c r="S3">
-        <v>0.003026847440308046</v>
+        <v>0.002544419045812476</v>
       </c>
       <c r="T3">
-        <v>0.003026847440308046</v>
+        <v>0.002544419045812477</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H4">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I4">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J4">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>29.7927800191771</v>
+        <v>30.00602099999999</v>
       </c>
       <c r="N4">
-        <v>29.7927800191771</v>
+        <v>90.01806299999998</v>
       </c>
       <c r="O4">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="P4">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="Q4">
-        <v>891.4600300054498</v>
+        <v>938.9074009032997</v>
       </c>
       <c r="R4">
-        <v>891.4600300054498</v>
+        <v>8450.166608129699</v>
       </c>
       <c r="S4">
-        <v>0.009191354892507244</v>
+        <v>0.007685702814247803</v>
       </c>
       <c r="T4">
-        <v>0.009191354892507244</v>
+        <v>0.007685702814247803</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H5">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I5">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J5">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.9891074222467</v>
+        <v>21.398273</v>
       </c>
       <c r="N5">
-        <v>20.9891074222467</v>
+        <v>64.194819</v>
       </c>
       <c r="O5">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="P5">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="Q5">
-        <v>628.0364007783005</v>
+        <v>669.5655144095666</v>
       </c>
       <c r="R5">
-        <v>628.0364007783005</v>
+        <v>6026.089629686099</v>
       </c>
       <c r="S5">
-        <v>0.006475338490421138</v>
+        <v>0.005480925545447789</v>
       </c>
       <c r="T5">
-        <v>0.006475338490421138</v>
+        <v>0.005480925545447788</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H6">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I6">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J6">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.4409749270949</v>
+        <v>15.70503166666666</v>
       </c>
       <c r="N6">
-        <v>14.4409749270949</v>
+        <v>47.115095</v>
       </c>
       <c r="O6">
-        <v>0.1874528655782328</v>
+        <v>0.1984745165258568</v>
       </c>
       <c r="P6">
-        <v>0.1874528655782328</v>
+        <v>0.1984745165258568</v>
       </c>
       <c r="Q6">
-        <v>432.1030777768802</v>
+        <v>491.4203873700555</v>
       </c>
       <c r="R6">
-        <v>432.1030777768802</v>
+        <v>4422.7834863305</v>
       </c>
       <c r="S6">
-        <v>0.004455177578705</v>
+        <v>0.00402266618684133</v>
       </c>
       <c r="T6">
-        <v>0.004455177578705</v>
+        <v>0.00402266618684133</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H7">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I7">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J7">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.00383894345923</v>
+        <v>2.085625</v>
       </c>
       <c r="N7">
-        <v>2.00383894345923</v>
+        <v>6.256875</v>
       </c>
       <c r="O7">
-        <v>0.02601107986164586</v>
+        <v>0.02635737528678909</v>
       </c>
       <c r="P7">
-        <v>0.02601107986164586</v>
+        <v>0.0263573752867891</v>
       </c>
       <c r="Q7">
-        <v>337.3012357754891</v>
+        <v>355.040634320625</v>
       </c>
       <c r="R7">
-        <v>337.3012357754891</v>
+        <v>3195.365708885625</v>
       </c>
       <c r="S7">
-        <v>0.003477727838986598</v>
+        <v>0.002906289586965766</v>
       </c>
       <c r="T7">
-        <v>0.003477727838986598</v>
+        <v>0.002906289586965766</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H8">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I8">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J8">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.811197695588911</v>
+        <v>9.933755333333332</v>
       </c>
       <c r="N8">
-        <v>9.811197695588911</v>
+        <v>29.801266</v>
       </c>
       <c r="O8">
-        <v>0.1273554681783992</v>
+        <v>0.1255392111850449</v>
       </c>
       <c r="P8">
-        <v>0.1273554681783992</v>
+        <v>0.125539211185045</v>
       </c>
       <c r="Q8">
-        <v>1651.494556467134</v>
+        <v>1691.045511409078</v>
       </c>
       <c r="R8">
-        <v>1651.494556467134</v>
+        <v>15219.4096026817</v>
       </c>
       <c r="S8">
-        <v>0.01702765358020648</v>
+        <v>0.01384255064296425</v>
       </c>
       <c r="T8">
-        <v>0.01702765358020648</v>
+        <v>0.01384255064296425</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H9">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I9">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J9">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>29.7927800191771</v>
+        <v>30.00602099999999</v>
       </c>
       <c r="N9">
-        <v>29.7927800191771</v>
+        <v>90.01806299999998</v>
       </c>
       <c r="O9">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="P9">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="Q9">
-        <v>5014.944714223335</v>
+        <v>5107.992438371228</v>
       </c>
       <c r="R9">
-        <v>5014.944714223335</v>
+        <v>45971.93194534105</v>
       </c>
       <c r="S9">
-        <v>0.05170634137623445</v>
+        <v>0.04181297518900862</v>
       </c>
       <c r="T9">
-        <v>0.05170634137623445</v>
+        <v>0.04181297518900862</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H10">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I10">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J10">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.9891074222467</v>
+        <v>21.398273</v>
       </c>
       <c r="N10">
-        <v>20.9891074222467</v>
+        <v>64.194819</v>
       </c>
       <c r="O10">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="P10">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="Q10">
-        <v>3533.044356911584</v>
+        <v>3642.676137505977</v>
       </c>
       <c r="R10">
-        <v>3533.044356911584</v>
+        <v>32784.08523755379</v>
       </c>
       <c r="S10">
-        <v>0.03642728046387663</v>
+        <v>0.02981819742233178</v>
       </c>
       <c r="T10">
-        <v>0.03642728046387663</v>
+        <v>0.02981819742233177</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H11">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I11">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J11">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.4409749270949</v>
+        <v>15.70503166666666</v>
       </c>
       <c r="N11">
-        <v>14.4409749270949</v>
+        <v>47.115095</v>
       </c>
       <c r="O11">
-        <v>0.1874528655782328</v>
+        <v>0.1984745165258568</v>
       </c>
       <c r="P11">
-        <v>0.1874528655782328</v>
+        <v>0.1984745165258568</v>
       </c>
       <c r="Q11">
-        <v>2430.813466626824</v>
+        <v>2673.502861232885</v>
       </c>
       <c r="R11">
-        <v>2430.813466626824</v>
+        <v>24061.52575109596</v>
       </c>
       <c r="S11">
-        <v>0.02506278295967613</v>
+        <v>0.02188474437916737</v>
       </c>
       <c r="T11">
-        <v>0.02506278295967613</v>
+        <v>0.02188474437916737</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H12">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I12">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J12">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.00383894345923</v>
+        <v>2.085625</v>
       </c>
       <c r="N12">
-        <v>2.00383894345923</v>
+        <v>6.256875</v>
       </c>
       <c r="O12">
-        <v>0.02601107986164586</v>
+        <v>0.02635737528678909</v>
       </c>
       <c r="P12">
-        <v>0.02601107986164586</v>
+        <v>0.0263573752867891</v>
       </c>
       <c r="Q12">
-        <v>1184.653101951489</v>
+        <v>1259.668512144792</v>
       </c>
       <c r="R12">
-        <v>1184.653101951489</v>
+        <v>11337.01660930313</v>
       </c>
       <c r="S12">
-        <v>0.01221430767286239</v>
+        <v>0.01031138727791078</v>
       </c>
       <c r="T12">
-        <v>0.01221430767286239</v>
+        <v>0.01031138727791079</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H13">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I13">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J13">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.811197695588911</v>
+        <v>9.933755333333332</v>
       </c>
       <c r="N13">
-        <v>9.811197695588911</v>
+        <v>29.801266</v>
       </c>
       <c r="O13">
-        <v>0.1273554681783992</v>
+        <v>0.1255392111850449</v>
       </c>
       <c r="P13">
-        <v>0.1273554681783992</v>
+        <v>0.125539211185045</v>
       </c>
       <c r="Q13">
-        <v>5800.299381283676</v>
+        <v>5999.754893976811</v>
       </c>
       <c r="R13">
-        <v>5800.299381283676</v>
+        <v>53997.79404579131</v>
       </c>
       <c r="S13">
-        <v>0.05980370213103388</v>
+        <v>0.04911275918058698</v>
       </c>
       <c r="T13">
-        <v>0.05980370213103388</v>
+        <v>0.049112759180587</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H14">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I14">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J14">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>29.7927800191771</v>
+        <v>30.00602099999999</v>
       </c>
       <c r="N14">
-        <v>29.7927800191771</v>
+        <v>90.01806299999998</v>
       </c>
       <c r="O14">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="P14">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="Q14">
-        <v>17613.24650400707</v>
+        <v>18122.93189257674</v>
       </c>
       <c r="R14">
-        <v>17613.24650400707</v>
+        <v>163106.3870331907</v>
       </c>
       <c r="S14">
-        <v>0.1816005137398609</v>
+        <v>0.1483505918849859</v>
       </c>
       <c r="T14">
-        <v>0.1816005137398609</v>
+        <v>0.1483505918849859</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H15">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I15">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J15">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.9891074222467</v>
+        <v>21.398273</v>
       </c>
       <c r="N15">
-        <v>20.9891074222467</v>
+        <v>64.194819</v>
       </c>
       <c r="O15">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="P15">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="Q15">
-        <v>12408.58767423365</v>
+        <v>12924.05428223102</v>
       </c>
       <c r="R15">
-        <v>12408.58767423365</v>
+        <v>116316.4885400792</v>
       </c>
       <c r="S15">
-        <v>0.1279381342851404</v>
+        <v>0.1057936493767872</v>
       </c>
       <c r="T15">
-        <v>0.1279381342851404</v>
+        <v>0.1057936493767872</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H16">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I16">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J16">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.4409749270949</v>
+        <v>15.70503166666666</v>
       </c>
       <c r="N16">
-        <v>14.4409749270949</v>
+        <v>47.115095</v>
       </c>
       <c r="O16">
-        <v>0.1874528655782328</v>
+        <v>0.1984745165258568</v>
       </c>
       <c r="P16">
-        <v>0.1874528655782328</v>
+        <v>0.1984745165258568</v>
       </c>
       <c r="Q16">
-        <v>8537.385600987409</v>
+        <v>9485.470241647869</v>
       </c>
       <c r="R16">
-        <v>8537.385600987409</v>
+        <v>85369.23217483082</v>
       </c>
       <c r="S16">
-        <v>0.08802429528150219</v>
+        <v>0.07764610787023202</v>
       </c>
       <c r="T16">
-        <v>0.08802429528150219</v>
+        <v>0.07764610787023202</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H17">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I17">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J17">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.00383894345923</v>
+        <v>2.085625</v>
       </c>
       <c r="N17">
-        <v>2.00383894345923</v>
+        <v>6.256875</v>
       </c>
       <c r="O17">
-        <v>0.02601107986164586</v>
+        <v>0.02635737528678909</v>
       </c>
       <c r="P17">
-        <v>0.02601107986164586</v>
+        <v>0.0263573752867891</v>
       </c>
       <c r="Q17">
-        <v>874.1476394558485</v>
+        <v>1449.27337818875</v>
       </c>
       <c r="R17">
-        <v>874.1476394558485</v>
+        <v>13043.46040369875</v>
       </c>
       <c r="S17">
-        <v>0.009012856339321296</v>
+        <v>0.01186345370229635</v>
       </c>
       <c r="T17">
-        <v>0.009012856339321296</v>
+        <v>0.01186345370229635</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H18">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I18">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J18">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.811197695588911</v>
+        <v>9.933755333333332</v>
       </c>
       <c r="N18">
-        <v>9.811197695588911</v>
+        <v>29.801266</v>
       </c>
       <c r="O18">
-        <v>0.1273554681783992</v>
+        <v>0.1255392111850449</v>
       </c>
       <c r="P18">
-        <v>0.1273554681783992</v>
+        <v>0.125539211185045</v>
       </c>
       <c r="Q18">
-        <v>4280.002309481119</v>
+        <v>6902.835912515678</v>
       </c>
       <c r="R18">
-        <v>4280.002309481119</v>
+        <v>62125.52321264111</v>
       </c>
       <c r="S18">
-        <v>0.04412875377817117</v>
+        <v>0.05650519459967129</v>
       </c>
       <c r="T18">
-        <v>0.04412875377817117</v>
+        <v>0.0565051945996713</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H19">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I19">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J19">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>29.7927800191771</v>
+        <v>30.00602099999999</v>
       </c>
       <c r="N19">
-        <v>29.7927800191771</v>
+        <v>90.01806299999998</v>
       </c>
       <c r="O19">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="P19">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="Q19">
-        <v>12996.69737011522</v>
+        <v>20850.78929369976</v>
       </c>
       <c r="R19">
-        <v>12996.69737011522</v>
+        <v>187657.1036432979</v>
       </c>
       <c r="S19">
-        <v>0.134001810444058</v>
+        <v>0.170680271344864</v>
       </c>
       <c r="T19">
-        <v>0.134001810444058</v>
+        <v>0.170680271344864</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H20">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I20">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J20">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>20.9891074222467</v>
+        <v>21.398273</v>
       </c>
       <c r="N20">
-        <v>20.9891074222467</v>
+        <v>64.194819</v>
       </c>
       <c r="O20">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="P20">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="Q20">
-        <v>9156.214259300068</v>
+        <v>14869.37843481696</v>
       </c>
       <c r="R20">
-        <v>9156.214259300068</v>
+        <v>133824.4059133526</v>
       </c>
       <c r="S20">
-        <v>0.09440469779508542</v>
+        <v>0.1217176726614794</v>
       </c>
       <c r="T20">
-        <v>0.09440469779508542</v>
+        <v>0.1217176726614794</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H21">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I21">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J21">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.4409749270949</v>
+        <v>15.70503166666666</v>
       </c>
       <c r="N21">
-        <v>14.4409749270949</v>
+        <v>47.115095</v>
       </c>
       <c r="O21">
-        <v>0.1874528655782328</v>
+        <v>0.1984745165258568</v>
       </c>
       <c r="P21">
-        <v>0.1874528655782328</v>
+        <v>0.1984745165258568</v>
       </c>
       <c r="Q21">
-        <v>6299.680014287505</v>
+        <v>10913.21992118012</v>
       </c>
       <c r="R21">
-        <v>6299.680014287505</v>
+        <v>98218.97929062111</v>
       </c>
       <c r="S21">
-        <v>0.06495254164137633</v>
+        <v>0.08933337300358313</v>
       </c>
       <c r="T21">
-        <v>0.06495254164137633</v>
+        <v>0.08933337300358313</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H22">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I22">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J22">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.00383894345923</v>
+        <v>2.085625</v>
       </c>
       <c r="N22">
-        <v>2.00383894345923</v>
+        <v>6.256875</v>
       </c>
       <c r="O22">
-        <v>0.02601107986164586</v>
+        <v>0.02635737528678909</v>
       </c>
       <c r="P22">
-        <v>0.02601107986164586</v>
+        <v>0.0263573752867891</v>
       </c>
       <c r="Q22">
-        <v>66.72692755647975</v>
+        <v>90.64917188520833</v>
       </c>
       <c r="R22">
-        <v>66.72692755647975</v>
+        <v>815.842546966875</v>
       </c>
       <c r="S22">
-        <v>0.000687984712062163</v>
+        <v>0.0007420354710135397</v>
       </c>
       <c r="T22">
-        <v>0.000687984712062163</v>
+        <v>0.0007420354710135397</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H23">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I23">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J23">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>9.811197695588911</v>
+        <v>9.933755333333332</v>
       </c>
       <c r="N23">
-        <v>9.811197695588911</v>
+        <v>29.801266</v>
       </c>
       <c r="O23">
-        <v>0.1273554681783992</v>
+        <v>0.1255392111850449</v>
       </c>
       <c r="P23">
-        <v>0.1273554681783992</v>
+        <v>0.125539211185045</v>
       </c>
       <c r="Q23">
-        <v>326.7084313401469</v>
+        <v>431.7586788981424</v>
       </c>
       <c r="R23">
-        <v>326.7084313401469</v>
+        <v>3885.828110083282</v>
       </c>
       <c r="S23">
-        <v>0.003368511248679616</v>
+        <v>0.003534287716009955</v>
       </c>
       <c r="T23">
-        <v>0.003368511248679616</v>
+        <v>0.003534287716009955</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H24">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I24">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J24">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>29.7927800191771</v>
+        <v>30.00602099999999</v>
       </c>
       <c r="N24">
-        <v>29.7927800191771</v>
+        <v>90.01806299999998</v>
       </c>
       <c r="O24">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="P24">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="Q24">
-        <v>992.0860558852671</v>
+        <v>1304.175465493639</v>
       </c>
       <c r="R24">
-        <v>992.0860558852671</v>
+        <v>11737.57918944275</v>
       </c>
       <c r="S24">
-        <v>0.01022885459429237</v>
+        <v>0.01067571204122369</v>
       </c>
       <c r="T24">
-        <v>0.01022885459429237</v>
+        <v>0.01067571204122369</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H25">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I25">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J25">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>20.9891074222467</v>
+        <v>21.398273</v>
       </c>
       <c r="N25">
-        <v>20.9891074222467</v>
+        <v>64.194819</v>
       </c>
       <c r="O25">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="P25">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="Q25">
-        <v>698.9277531564865</v>
+        <v>930.0500939639737</v>
       </c>
       <c r="R25">
-        <v>698.9277531564865</v>
+        <v>8370.450845675763</v>
       </c>
       <c r="S25">
-        <v>0.007206260300245535</v>
+        <v>0.007613198721932904</v>
       </c>
       <c r="T25">
-        <v>0.007206260300245535</v>
+        <v>0.007613198721932902</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H26">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I26">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J26">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.4409749270949</v>
+        <v>15.70503166666666</v>
       </c>
       <c r="N26">
-        <v>14.4409749270949</v>
+        <v>47.115095</v>
       </c>
       <c r="O26">
-        <v>0.1874528655782328</v>
+        <v>0.1984745165258568</v>
       </c>
       <c r="P26">
-        <v>0.1874528655782328</v>
+        <v>0.1984745165258568</v>
       </c>
       <c r="Q26">
-        <v>480.8779123444595</v>
+        <v>682.6002349484239</v>
       </c>
       <c r="R26">
-        <v>480.8779123444595</v>
+        <v>6143.402114535815</v>
       </c>
       <c r="S26">
-        <v>0.004958068116973115</v>
+        <v>0.005587625086032991</v>
       </c>
       <c r="T26">
-        <v>0.004958068116973115</v>
+        <v>0.00558762508603299</v>
       </c>
     </row>
   </sheetData>
